--- a/AI_Work_3/dist/run/file_data/【上海科之锐】2020年4月考勤统计表.xlsx
+++ b/AI_Work_3/dist/run/file_data/【上海科之锐】2020年4月考勤统计表.xlsx
@@ -1518,7 +1518,7 @@
       </c>
       <c r="D2" s="7" t="inlineStr">
         <is>
-          <t>钟京添</t>
+          <t>宋玉虹端</t>
         </is>
       </c>
       <c r="E2" s="8" t="n"/>
@@ -1724,12 +1724,12 @@
       </c>
       <c r="C7" s="26" t="inlineStr">
         <is>
-          <t>04-01 08:14:00(正常/区域内)</t>
+          <t>04-01 08:47:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D7" s="26" t="inlineStr">
         <is>
-          <t>04-01 20:42:00(正常/区域内)</t>
+          <t>04-01 21:03:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E7" s="25" t="n">
@@ -1762,12 +1762,12 @@
       </c>
       <c r="C8" s="27" t="inlineStr">
         <is>
-          <t>04-02 08:24:00(正常/区域内)</t>
+          <t>04-02 08:46:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D8" s="25" t="inlineStr">
         <is>
-          <t>04-02 18:00:00(正常/区域内)</t>
+          <t>04-02 19:52:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E8" s="25" t="n">
@@ -1799,12 +1799,12 @@
       </c>
       <c r="C9" s="27" t="inlineStr">
         <is>
-          <t>04-03 08:21:00(正常/区域内)</t>
+          <t>04-03 08:46:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D9" s="25" t="inlineStr">
         <is>
-          <t>04-03 18:00:00(正常/区域内)</t>
+          <t>04-03 18:41:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E9" s="25" t="n">
@@ -1932,12 +1932,12 @@
       </c>
       <c r="C13" s="29" t="inlineStr">
         <is>
-          <t>04-07 08:22:00(正常/区域内)</t>
+          <t>04-07 08:40:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D13" s="29" t="inlineStr">
         <is>
-          <t>04-07 18:10:00(正常/区域内)</t>
+          <t>04-07 19:25:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E13" s="25" t="n">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="C14" s="29" t="inlineStr">
         <is>
-          <t>04-08 08:22:00(正常/区域内)</t>
+          <t>04-08 08:46:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D14" s="29" t="inlineStr">
         <is>
-          <t>04-08 18:10:00(正常/区域内)</t>
+          <t>04-08 18:20:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E14" s="25" t="n">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="C15" s="30" t="inlineStr">
         <is>
-          <t>04-09 08:18:00(正常/区域内)</t>
+          <t>04-09 08:42:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D15" s="29" t="inlineStr">
         <is>
-          <t>04-09 19:12:00(正常/区域内)</t>
+          <t>04-09 20:36:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E15" s="25" t="n">
@@ -2028,12 +2028,12 @@
       </c>
       <c r="C16" s="29" t="inlineStr">
         <is>
-          <t>04-10 08:19:00(正常/区域内)</t>
+          <t>04-10 08:45:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D16" s="25" t="inlineStr">
         <is>
-          <t>04-10 18:16:00(正常/区域内)</t>
+          <t>04-10 18:39:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E16" s="25" t="n">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="C19" s="24" t="inlineStr">
         <is>
-          <t>04-13 08:23:00(正常/区域内)</t>
+          <t>04-13 08:42:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D19" s="24" t="inlineStr">
         <is>
-          <t>04-13 18:04:00(正常/区域内)</t>
+          <t>04-13 20:47:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E19" s="25" t="n">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="C20" s="29" t="inlineStr">
         <is>
-          <t>04-14 08:16:00(正常/区域内)</t>
+          <t>04-14 08:45:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D20" s="29" t="inlineStr">
         <is>
-          <t>04-14 20:30:00(正常/区域内)</t>
+          <t>04-14 20:46:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E20" s="25" t="n">
@@ -2168,12 +2168,12 @@
       </c>
       <c r="C21" s="31" t="inlineStr">
         <is>
-          <t>04-15 08:19:00(正常/区域内)</t>
+          <t>04-15 08:48:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D21" s="31" t="inlineStr">
         <is>
-          <t>04-15 20:36:00(正常/区域内)</t>
+          <t>04-15 19:43:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E21" s="25" t="n">
@@ -2199,12 +2199,12 @@
       </c>
       <c r="C22" s="29" t="inlineStr">
         <is>
-          <t>04-16 08:29:00(正常/区域内)</t>
+          <t>04-16 08:48:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D22" s="29" t="inlineStr">
         <is>
-          <t>04-16 20:37:00(正常/区域内)</t>
+          <t>04-16 20:14:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E22" s="25" t="n">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="C23" s="25" t="inlineStr">
         <is>
-          <t>04-17 08:15:00(正常/区域内)</t>
+          <t>04-17 08:46:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D23" s="25" t="inlineStr">
         <is>
-          <t>04-17 18:04:00(正常/区域内)</t>
+          <t>04-17 18:26:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E23" s="25" t="n">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="D24" s="28" t="inlineStr">
         <is>
-          <t>04-18 18:00:00(正常/区域内)</t>
+          <t>04-18 18:13:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E24" s="25" t="n"/>
@@ -2321,12 +2321,12 @@
       </c>
       <c r="C26" s="32" t="inlineStr">
         <is>
-          <t>04-20 08:26:00(正常/区域内)</t>
+          <t>04-20 08:19:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D26" s="29" t="inlineStr">
         <is>
-          <t>04-20 18:01:00(正常/区域内)</t>
+          <t>04-20 20:53:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E26" s="25" t="n">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C27" s="29" t="inlineStr">
         <is>
-          <t>04-21 08:20:00(正常/区域内)</t>
+          <t>04-21 08:21:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D27" s="29" t="inlineStr">
         <is>
-          <t>04-21 18:01:00(正常/区域内)</t>
+          <t>04-21 20:04:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E27" s="25" t="n">
@@ -2385,12 +2385,12 @@
       </c>
       <c r="C28" s="33" t="inlineStr">
         <is>
-          <t>04-22 08:22:00(正常/区域内)</t>
+          <t>04-22 08:10:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D28" s="33" t="inlineStr">
         <is>
-          <t>04-22 20:09:00(正常/区域内)</t>
+          <t>04-22 18:03:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E28" s="25" t="n">
@@ -2416,12 +2416,12 @@
       </c>
       <c r="C29" s="32" t="inlineStr">
         <is>
-          <t>04-23 08:24:00(正常/区域内)</t>
+          <t>04-23 08:32:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D29" s="29" t="inlineStr">
         <is>
-          <t>04-23 20:45:00(正常/区域内)</t>
+          <t>04-23 18:09:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E29" s="25" t="n">
@@ -2448,14 +2448,10 @@
       </c>
       <c r="C30" s="32" t="inlineStr">
         <is>
-          <t>04-24 08:17:00(正常/区域内)</t>
-        </is>
-      </c>
-      <c r="D30" s="32" t="inlineStr">
-        <is>
-          <t>04-24 18:01:00(正常/区域内)</t>
-        </is>
-      </c>
+          <t>04-24 08:47:00(正常/区域内)</t>
+        </is>
+      </c>
+      <c r="D30" s="32" t="inlineStr"/>
       <c r="E30" s="25" t="n">
         <v>8</v>
       </c>
@@ -2502,12 +2498,12 @@
       </c>
       <c r="C32" s="29" t="inlineStr">
         <is>
-          <t>04-26 08:23:00(正常/区域内)</t>
+          <t>04-26 08:49:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D32" s="29" t="inlineStr">
         <is>
-          <t>04-26 20:39:00(正常/区域内)</t>
+          <t>04-26 20:06:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E32" s="25" t="n">
@@ -2538,12 +2534,12 @@
       </c>
       <c r="C33" s="29" t="inlineStr">
         <is>
-          <t>04-27 08:21:00(正常/区域内)</t>
+          <t>04-27 08:43:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D33" s="29" t="inlineStr">
         <is>
-          <t>04-27 18:01:00(正常/区域内)</t>
+          <t>04-27 18:49:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E33" s="25" t="n">
@@ -2570,12 +2566,12 @@
       </c>
       <c r="C34" s="29" t="inlineStr">
         <is>
-          <t>04-28 08:24:00(正常/区域内)</t>
+          <t>04-28 08:35:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D34" s="29" t="inlineStr">
         <is>
-          <t>04-28 18:01:00(正常/区域内)</t>
+          <t>04-28 19:36:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E34" s="25" t="n">
@@ -2602,12 +2598,12 @@
       </c>
       <c r="C35" s="33" t="inlineStr">
         <is>
-          <t>04-29 08:22:00(正常/区域内)</t>
+          <t>04-29 08:48:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D35" s="33" t="inlineStr">
         <is>
-          <t>04-29 18:01:00(正常/区域内)</t>
+          <t>04-29 18:22:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E35" s="25" t="n">
@@ -2634,12 +2630,12 @@
       </c>
       <c r="C36" s="33" t="inlineStr">
         <is>
-          <t>04-30 08:24:00(正常/区域内)</t>
+          <t>04-30 08:39:00(正常/区域内)</t>
         </is>
       </c>
       <c r="D36" s="33" t="inlineStr">
         <is>
-          <t>04-30 18:18:00(正常/区域内)</t>
+          <t>04-30 18:22:00(正常/区域内)</t>
         </is>
       </c>
       <c r="E36" s="25" t="n">
@@ -2840,7 +2836,7 @@
       <c r="K41" s="66" t="n"/>
       <c r="L41" s="55" t="inlineStr">
         <is>
-          <t>钟京添</t>
+          <t>宋玉虹端</t>
         </is>
       </c>
       <c r="M41" s="64" t="n"/>
